--- a/doc/D4_ドキュメント/04_外部設計書_D4 .xlsx
+++ b/doc/D4_ドキュメント/04_外部設計書_D4 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B735E013-F810-45D5-B434-FBF806C0B3B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07276F7-3B17-4C36-AB2F-BA3B1841EDF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="249">
   <si>
     <t>外部設計書</t>
     <rPh sb="0" eb="2">
@@ -1335,6 +1335,13 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポップアップ表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -6379,6 +6386,78 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のポップアップ表示」</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規登録をクリックしたらユーザー情報として新規登録者の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>がポップアップ表示される</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -6528,6 +6607,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAB7A37-6DB6-4D7F-BE63-7EE2CC37AB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6718300" y="2667000"/>
+          <a:ext cx="3200400" cy="1873250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規登録者の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6657,13 +6822,21 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ユーザー名</a:t>
+            <a:t>ID</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7850,7 +8023,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>「ユーザ名の入力」</a:t>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>番号の入力」</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
@@ -7866,7 +8055,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　ユーザ名の入力</a:t>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>番号の入力</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
@@ -10020,7 +10225,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」「雑務追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
+            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200">
@@ -13078,7 +13283,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」「雑務追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
+            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="1600">
@@ -16215,7 +16420,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」「雑務追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
+            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
@@ -19822,7 +20027,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」「雑務追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
+            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
@@ -23866,7 +24071,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」「雑務追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
+            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
@@ -26841,7 +27046,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」「雑務追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
+            <a:t>日のスケジュール」「カレンダー」「各項目追加」（プルダウンメニューで「目標追加」、「タスク追加」を選択させ、移動する）「達成度入力・表示」「アプリの使い方」「ログアウト」</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="1600">
@@ -27361,7 +27566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
@@ -32002,8 +32207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F769ABF1-58BB-4414-A545-BCE356D6B6A7}">
   <dimension ref="A1:AQ109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:V1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35751,11 +35956,15 @@
       <c r="C86" s="13">
         <v>8</v>
       </c>
-      <c r="D86" s="14"/>
+      <c r="D86" s="14" t="s">
+        <v>238</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
@@ -36771,6 +36980,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
     <mergeCell ref="B7:AM8"/>
@@ -36780,12 +36995,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -36801,8 +37010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEAD95B-978A-4327-8AA7-800B506640A7}">
   <dimension ref="A1:AQ109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:V2"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41522,6 +41731,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
     <mergeCell ref="B7:AM8"/>
@@ -41531,12 +41746,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -41552,7 +41761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017980BF-C280-4014-A0B3-039232F1BB7C}">
   <dimension ref="A1:AQ109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:V1"/>
     </sheetView>
   </sheetViews>
@@ -46455,7 +46664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB0858E-E230-4076-B220-23F73EE4FA0C}">
   <dimension ref="A1:AQ109"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
@@ -51278,6 +51487,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
     <mergeCell ref="B7:AM8"/>
@@ -51287,12 +51502,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -51308,7 +51517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C536998-AFEC-4380-AA13-32F9FC64D4D1}">
   <dimension ref="A1:AQ109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:V2"/>
     </sheetView>
   </sheetViews>
@@ -56171,6 +56380,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
     <mergeCell ref="B7:AM8"/>
@@ -56180,12 +56395,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -56201,7 +56410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD73C389-585F-4931-847B-272EA830A3B1}">
   <dimension ref="A1:AQ109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:V1"/>
     </sheetView>
   </sheetViews>
@@ -61012,6 +61221,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
     <mergeCell ref="B7:AM8"/>
@@ -61021,12 +61236,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -61042,7 +61251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D506B4B3-B7FC-4EB7-BD6E-5E60811CB3DB}">
   <dimension ref="A1:AQ109"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:V1"/>
     </sheetView>
   </sheetViews>
@@ -65897,6 +66106,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
     <mergeCell ref="B7:AM8"/>
@@ -65906,12 +66121,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -65927,8 +66136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3F2342-1F9A-46E0-A25D-F89B43FC2B03}">
   <dimension ref="A1:AQ109"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:V1"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -70658,6 +70867,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
     <mergeCell ref="B7:AM8"/>
@@ -70667,12 +70882,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -70694,6 +70903,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5c7f7fcb8e73fa5107ed91968d7706c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54c177cd-5b69-4c86-94f8-baea005b32a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e809ec2e53eec0ee786635f259b2dd3e" ns3:_="">
     <xsd:import namespace="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
@@ -70837,14 +71054,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="54c177cd-5b69-4c86-94f8-baea005b32a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FB106F-E19D-47DB-98C8-7FB382707526}">
   <ds:schemaRefs>
@@ -70854,6 +71063,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AF20B2C-D781-4B4A-8C62-9CC9615204B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AB1A56F-3014-4BA7-B472-320700EA4C2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -70869,20 +71094,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AF20B2C-D781-4B4A-8C62-9CC9615204B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54c177cd-5b69-4c86-94f8-baea005b32a7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>